--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Johann_Schmitz/Ernst_Johann_Schmitz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Johann_Schmitz/Ernst_Johann_Schmitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Johann Schmitz (18 mai 1845 – 3 décembre 1922) est un naturaliste, ornithologue et entomologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schmitz étudie au Collegium Marianum (de) à Neuss. Après son baccalauréat, il entre en 1864 dans l'ordre missionnaire de Saint-Vincent-de-Paul (Vincentins/Lazaristes) à Cologne, où il est ordonné prêtre en 1869. Il travaille ensuite comme inspecteur à l'Académie de chevalerie rhénane à Bedburg jusqu'en 1873. Il s'installe à Madère à la fin des années 1870, et devient vice chancelier du séminaire de Funchal entre 1891 et 1898, puis à nouveau entre 1902 et 1908. Il est alors naturalisé citoyen portugais. De 1898 à 1902 il travaille en Belgique. En 1908 il se rend en Palestine pour s'occuper de l'hospice Saint-Paul à Jérusalem jusqu'en 1914. Il occupe ensuite des fonctions similaires à Tabgha, Damas et finalement à Haifa où il meurt en 1922.
 Schmitz est connu pour ses travaux d'histoire naturelle, notamment sur l'île de Madère, où il décrit la sous-espèce de Pigeon ramier de l'île et le Pétrel de Madère. Par la suite il étudie les espèces de fourmi de Palestine.
